--- a/2020/February/Others/Cash.xlsx
+++ b/2020/February/Others/Cash.xlsx
@@ -107,7 +107,7 @@
     <t>ALIUL KABIR</t>
   </si>
   <si>
-    <t>Date: 26.01.2020</t>
+    <t>Date: 05.02.2020</t>
   </si>
 </sst>
 </file>
@@ -483,47 +483,68 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -535,36 +556,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,15 +580,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -593,6 +593,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -614,12 +620,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2068,7 +2068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2090,60 +2090,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="23.25">
       <c r="A5" s="6"/>
@@ -2152,10 +2152,10 @@
       <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2170,10 +2170,10 @@
       <c r="D6" s="13">
         <v>1000</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="38">
         <v>50</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="13">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>50000</v>
@@ -2189,10 +2189,10 @@
       <c r="D7" s="13">
         <v>500</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="38">
         <v>16</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -2208,10 +2208,10 @@
       <c r="D8" s="13">
         <v>100</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="38">
         <v>151</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>15100</v>
@@ -2227,10 +2227,10 @@
       <c r="D9" s="13">
         <v>50</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="38">
         <v>58</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -2246,8 +2246,8 @@
       <c r="D10" s="13">
         <v>20</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2263,8 +2263,8 @@
       <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2277,10 +2277,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
         <f>SUM(G6:G11)</f>
@@ -2327,58 +2327,58 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6"/>
@@ -2388,11 +2388,11 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -2467,60 +2467,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1">
       <c r="A31" s="6"/>
@@ -2529,10 +2529,10 @@
       <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="32"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="15" t="s">
         <v>5</v>
       </c>
@@ -2547,10 +2547,10 @@
       <c r="D32" s="16">
         <v>1000</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="38">
         <v>50</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="16">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>50000</v>
@@ -2566,10 +2566,10 @@
       <c r="D33" s="16">
         <v>500</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="38">
         <v>116</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="16">
         <f t="shared" si="1"/>
         <v>58000</v>
@@ -2585,10 +2585,10 @@
       <c r="D34" s="16">
         <v>100</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="38">
         <v>151</v>
       </c>
-      <c r="F34" s="36"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="16">
         <f t="shared" si="1"/>
         <v>15100</v>
@@ -2604,10 +2604,10 @@
       <c r="D35" s="16">
         <v>50</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="38">
         <v>58</v>
       </c>
-      <c r="F35" s="36"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="16">
         <f t="shared" si="1"/>
         <v>2900</v>
@@ -2623,8 +2623,8 @@
       <c r="D36" s="16">
         <v>20</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
       <c r="G36" s="16">
         <f>SUM(D36*E36)</f>
         <v>0</v>
@@ -2640,8 +2640,8 @@
       <c r="D37" s="16">
         <v>10</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
       <c r="G37" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2654,10 +2654,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="44"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
         <f>SUM(G32:G37)</f>
@@ -2704,58 +2704,58 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="45" t="s">
+      <c r="H42" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10" ht="15.75">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="6"/>
@@ -2765,11 +2765,11 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -2797,14 +2797,24 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A27:J27"/>
@@ -2817,24 +2827,14 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.25" footer="0"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
@@ -2846,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H47" sqref="A1:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2865,63 +2865,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
@@ -2931,10 +2931,10 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -2949,13 +2949,13 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="57">
-        <v>70</v>
-      </c>
-      <c r="F6" s="57"/>
+      <c r="E6" s="50">
+        <v>35</v>
+      </c>
+      <c r="F6" s="50"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -2968,13 +2968,13 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="57">
-        <v>150</v>
-      </c>
-      <c r="F7" s="57"/>
+      <c r="E7" s="50">
+        <v>70</v>
+      </c>
+      <c r="F7" s="50"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -2987,13 +2987,13 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="57">
-        <v>200</v>
-      </c>
-      <c r="F8" s="57"/>
+      <c r="E8" s="50">
+        <v>100</v>
+      </c>
+      <c r="F8" s="50"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -3006,13 +3006,11 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="57">
-        <v>40</v>
-      </c>
-      <c r="F9" s="57"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -3025,8 +3023,8 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3042,8 +3040,8 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3056,14 +3054,14 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="57"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="23"/>
       <c r="G12" s="24">
         <f>SUM(G6:G11)</f>
-        <v>167000</v>
+        <v>80000</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -3115,35 +3113,35 @@
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="50"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="50"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="25"/>
@@ -3167,9 +3165,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="21"/>
@@ -3256,60 +3254,60 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" ht="31.5">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10" ht="18">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
     </row>
     <row r="31" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1">
       <c r="A32" s="21"/>
@@ -3318,10 +3316,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="56"/>
+      <c r="F32" s="49"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3336,13 +3334,13 @@
       <c r="D33" s="28">
         <v>1000</v>
       </c>
-      <c r="E33" s="57">
-        <v>70</v>
-      </c>
-      <c r="F33" s="57"/>
+      <c r="E33" s="50">
+        <v>35</v>
+      </c>
+      <c r="F33" s="50"/>
       <c r="G33" s="28">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>70000</v>
+        <v>35000</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
@@ -3355,13 +3353,13 @@
       <c r="D34" s="28">
         <v>500</v>
       </c>
-      <c r="E34" s="57">
-        <v>150</v>
-      </c>
-      <c r="F34" s="57"/>
+      <c r="E34" s="50">
+        <v>70</v>
+      </c>
+      <c r="F34" s="50"/>
       <c r="G34" s="28">
         <f t="shared" si="1"/>
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
@@ -3374,13 +3372,13 @@
       <c r="D35" s="28">
         <v>100</v>
       </c>
-      <c r="E35" s="57">
-        <v>200</v>
-      </c>
-      <c r="F35" s="57"/>
+      <c r="E35" s="50">
+        <v>100</v>
+      </c>
+      <c r="F35" s="50"/>
       <c r="G35" s="28">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
@@ -3393,13 +3391,11 @@
       <c r="D36" s="28">
         <v>50</v>
       </c>
-      <c r="E36" s="57">
-        <v>40</v>
-      </c>
-      <c r="F36" s="57"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
       <c r="G36" s="28">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
@@ -3412,8 +3408,8 @@
       <c r="D37" s="28">
         <v>20</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
       <c r="G37" s="28">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -3429,8 +3425,8 @@
       <c r="D38" s="28">
         <v>10</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3450,7 +3446,7 @@
       <c r="F39" s="28"/>
       <c r="G39" s="29">
         <f>SUM(G33:G38)</f>
-        <v>167000</v>
+        <v>80000</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -3502,35 +3498,35 @@
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
-      <c r="H43" s="50" t="s">
+      <c r="H43" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="51"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="51"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
     </row>
     <row r="46" spans="1:10" s="4" customFormat="1">
       <c r="A46" s="25"/>
@@ -3556,9 +3552,9 @@
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="6"/>
@@ -3586,26 +3582,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -3620,6 +3596,26 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -3650,63 +3646,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
@@ -3716,10 +3712,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -3734,10 +3730,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="38">
         <v>68</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -3753,10 +3749,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="38">
         <v>135</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -3772,10 +3768,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="38">
         <v>53</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -3791,10 +3787,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="38">
         <v>2</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -3810,10 +3806,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="38">
         <v>5</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -3829,8 +3825,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3843,10 +3839,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -3893,76 +3889,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -4037,60 +4033,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="20.25">
       <c r="A31" s="6"/>
@@ -4099,10 +4095,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="64"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4117,10 +4113,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="63">
+      <c r="E32" s="64">
         <v>68</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4136,10 +4132,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="63">
+      <c r="E33" s="64">
         <v>135</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4155,10 +4151,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="63">
+      <c r="E34" s="64">
         <v>53</v>
       </c>
-      <c r="F34" s="63"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4174,10 +4170,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="63">
+      <c r="E35" s="64">
         <v>2</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="64"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4193,10 +4189,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="63">
+      <c r="E36" s="64">
         <v>5</v>
       </c>
-      <c r="F36" s="63"/>
+      <c r="F36" s="64"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4212,8 +4208,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4226,10 +4222,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="62"/>
+      <c r="E38" s="63"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4276,76 +4272,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="45" t="s">
+      <c r="H42" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="61"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -4373,30 +4369,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4413,6 +4385,30 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4444,63 +4440,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
@@ -4510,10 +4506,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4528,10 +4524,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="38">
         <v>44</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -4547,10 +4543,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="38">
         <v>118</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -4566,10 +4562,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="38">
         <v>510</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -4585,8 +4581,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4602,8 +4598,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4619,8 +4615,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4633,10 +4629,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4683,72 +4679,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -4823,60 +4819,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="23.25">
       <c r="A31" s="6"/>
@@ -4885,10 +4881,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="32"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -4903,10 +4899,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="38">
         <v>44</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -4922,10 +4918,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="38">
         <v>118</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -4941,10 +4937,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="38">
         <v>510</v>
       </c>
-      <c r="F34" s="36"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -4960,8 +4956,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4977,8 +4973,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4994,8 +4990,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5008,10 +5004,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="65"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5058,72 +5054,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="45" t="s">
+      <c r="H42" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="61"/>
-      <c r="B46" s="61"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -5151,6 +5147,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -5163,34 +5187,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5215,64 +5211,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="23.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="18"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5283,8 +5279,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="17"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5295,8 +5291,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="17"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5307,8 +5303,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="17"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5319,8 +5315,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="17"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5331,8 +5327,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="17"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5343,8 +5339,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="17"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5354,8 +5350,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="6"/>
@@ -5399,52 +5395,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6"/>
@@ -5454,9 +5450,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -5543,60 +5539,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10" ht="18">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
     </row>
     <row r="31" spans="1:10" ht="18.75">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
     </row>
     <row r="32" spans="1:10" ht="20.25">
       <c r="A32" s="6" t="s">
@@ -5607,10 +5603,10 @@
       <c r="D32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="64"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="20" t="s">
         <v>5</v>
       </c>
@@ -5625,10 +5621,10 @@
       <c r="D33" s="19">
         <v>1000</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="38">
         <v>30</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="19">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -5644,10 +5640,10 @@
       <c r="D34" s="19">
         <v>500</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="38">
         <v>35</v>
       </c>
-      <c r="F34" s="36"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="19">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -5663,10 +5659,10 @@
       <c r="D35" s="19">
         <v>100</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="38">
         <v>425</v>
       </c>
-      <c r="F35" s="36"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="19">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -5682,8 +5678,8 @@
       <c r="D36" s="19">
         <v>50</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
       <c r="G36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5699,8 +5695,8 @@
       <c r="D37" s="19">
         <v>20</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="19">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -5716,10 +5712,10 @@
       <c r="D38" s="19">
         <v>10</v>
       </c>
-      <c r="E38" s="63">
+      <c r="E38" s="64">
         <v>100</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="64"/>
       <c r="G38" s="19">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -5782,58 +5778,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="45"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="45" t="s">
+      <c r="H43" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
     </row>
     <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -5843,20 +5839,30 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A28:J28"/>
@@ -5869,24 +5875,14 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5912,177 +5908,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="77">
+      <c r="A5" s="78">
         <v>1</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="76">
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="69">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="77"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="76"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="69"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="77">
+      <c r="A7" s="78">
         <v>2</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="76">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="69">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="77"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="76"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="77">
+      <c r="A9" s="78">
         <v>3</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="76">
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="69">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="77"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="76"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="77">
+      <c r="A11" s="78">
         <v>4</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="76">
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="69">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="77"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="69"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="76">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="69">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="76"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="18.75">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" ht="18.75">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" ht="20.25">
       <c r="A25" s="6" t="s">
@@ -6093,10 +6089,10 @@
       <c r="D25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="64"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="20" t="s">
         <v>5</v>
       </c>
@@ -6111,8 +6107,8 @@
       <c r="D26" s="19">
         <v>1000</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="19">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6128,10 +6124,10 @@
       <c r="D27" s="19">
         <v>500</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="38">
         <v>30</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="38"/>
       <c r="G27" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6147,8 +6143,8 @@
       <c r="D28" s="19">
         <v>100</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
       <c r="G28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6164,10 +6160,10 @@
       <c r="D29" s="19">
         <v>50</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="38">
         <v>5</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="19">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6183,8 +6179,8 @@
       <c r="D30" s="19">
         <v>20</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="19">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6200,10 +6196,10 @@
       <c r="D31" s="19">
         <v>10</v>
       </c>
-      <c r="E31" s="63">
+      <c r="E31" s="64">
         <v>2</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6266,58 +6262,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="45" t="s">
+      <c r="H36" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" ht="15.75">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="38" t="s">
+      <c r="H39" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="6"/>
@@ -6327,29 +6323,12 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6366,6 +6345,23 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>

--- a/2020/February/Others/Cash.xlsx
+++ b/2020/February/Others/Cash.xlsx
@@ -107,7 +107,7 @@
     <t>ALIUL KABIR</t>
   </si>
   <si>
-    <t>Date: 05.02.2020</t>
+    <t>Date: 11.02.2020</t>
   </si>
 </sst>
 </file>
@@ -483,12 +483,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -498,32 +525,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,52 +559,33 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -593,12 +593,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -620,6 +614,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2068,7 +2068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2090,60 +2090,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" ht="23.25">
       <c r="A5" s="6"/>
@@ -2152,10 +2152,10 @@
       <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2170,10 +2170,10 @@
       <c r="D6" s="13">
         <v>1000</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="36">
         <v>50</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="13">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>50000</v>
@@ -2189,10 +2189,10 @@
       <c r="D7" s="13">
         <v>500</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="36">
         <v>16</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -2208,10 +2208,10 @@
       <c r="D8" s="13">
         <v>100</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>151</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>15100</v>
@@ -2227,10 +2227,10 @@
       <c r="D9" s="13">
         <v>50</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="36">
         <v>58</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -2246,8 +2246,8 @@
       <c r="D10" s="13">
         <v>20</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2263,8 +2263,8 @@
       <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2277,10 +2277,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="43"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
         <f>SUM(G6:G11)</f>
@@ -2327,58 +2327,58 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6"/>
@@ -2388,11 +2388,11 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -2467,60 +2467,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1">
       <c r="A31" s="6"/>
@@ -2529,10 +2529,10 @@
       <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="43"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="15" t="s">
         <v>5</v>
       </c>
@@ -2547,10 +2547,10 @@
       <c r="D32" s="16">
         <v>1000</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="36">
         <v>50</v>
       </c>
-      <c r="F32" s="38"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="16">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>50000</v>
@@ -2566,10 +2566,10 @@
       <c r="D33" s="16">
         <v>500</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="36">
         <v>116</v>
       </c>
-      <c r="F33" s="38"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="16">
         <f t="shared" si="1"/>
         <v>58000</v>
@@ -2585,10 +2585,10 @@
       <c r="D34" s="16">
         <v>100</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="36">
         <v>151</v>
       </c>
-      <c r="F34" s="38"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="16">
         <f t="shared" si="1"/>
         <v>15100</v>
@@ -2604,10 +2604,10 @@
       <c r="D35" s="16">
         <v>50</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="36">
         <v>58</v>
       </c>
-      <c r="F35" s="38"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="16">
         <f t="shared" si="1"/>
         <v>2900</v>
@@ -2623,8 +2623,8 @@
       <c r="D36" s="16">
         <v>20</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="16">
         <f>SUM(D36*E36)</f>
         <v>0</v>
@@ -2640,8 +2640,8 @@
       <c r="D37" s="16">
         <v>10</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
       <c r="G37" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2654,10 +2654,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="35"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
         <f>SUM(G32:G37)</f>
@@ -2704,58 +2704,58 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="36"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="36" t="s">
+      <c r="H42" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10" ht="15.75">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="6"/>
@@ -2765,11 +2765,11 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="32" t="s">
+      <c r="H46" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -2797,6 +2797,32 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -2809,32 +2835,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.25" footer="0"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
@@ -2865,63 +2865,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
@@ -2931,10 +2931,10 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -2949,13 +2949,13 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="50">
-        <v>35</v>
-      </c>
-      <c r="F6" s="50"/>
+      <c r="E6" s="57">
+        <v>54</v>
+      </c>
+      <c r="F6" s="57"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>35000</v>
+        <v>54000</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -2968,13 +2968,13 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="50">
-        <v>70</v>
-      </c>
-      <c r="F7" s="50"/>
+      <c r="E7" s="57">
+        <v>134</v>
+      </c>
+      <c r="F7" s="57"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -2987,10 +2987,10 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="57">
         <v>100</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -3006,8 +3006,8 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3023,11 +3023,13 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
+      <c r="E10" s="57">
+        <v>100</v>
+      </c>
+      <c r="F10" s="57"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -3040,11 +3042,13 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="E11" s="57">
+        <v>100</v>
+      </c>
+      <c r="F11" s="57"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -3054,14 +3058,14 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="50"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="23"/>
       <c r="G12" s="24">
         <f>SUM(G6:G11)</f>
-        <v>80000</v>
+        <v>134000</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -3113,35 +3117,35 @@
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="51"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="51"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="25"/>
@@ -3165,9 +3169,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="21"/>
@@ -3254,60 +3258,60 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" ht="31.5">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
     </row>
     <row r="29" spans="1:10" ht="18">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1">
       <c r="A32" s="21"/>
@@ -3316,10 +3320,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="49"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3334,13 +3338,13 @@
       <c r="D33" s="28">
         <v>1000</v>
       </c>
-      <c r="E33" s="50">
-        <v>35</v>
-      </c>
-      <c r="F33" s="50"/>
+      <c r="E33" s="57">
+        <v>54</v>
+      </c>
+      <c r="F33" s="57"/>
       <c r="G33" s="28">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>35000</v>
+        <v>54000</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
@@ -3353,13 +3357,13 @@
       <c r="D34" s="28">
         <v>500</v>
       </c>
-      <c r="E34" s="50">
-        <v>70</v>
-      </c>
-      <c r="F34" s="50"/>
+      <c r="E34" s="57">
+        <v>134</v>
+      </c>
+      <c r="F34" s="57"/>
       <c r="G34" s="28">
         <f t="shared" si="1"/>
-        <v>35000</v>
+        <v>67000</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
@@ -3372,10 +3376,10 @@
       <c r="D35" s="28">
         <v>100</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="57">
         <v>100</v>
       </c>
-      <c r="F35" s="50"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="28">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -3391,8 +3395,8 @@
       <c r="D36" s="28">
         <v>50</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3408,11 +3412,13 @@
       <c r="D37" s="28">
         <v>20</v>
       </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
+      <c r="E37" s="57">
+        <v>100</v>
+      </c>
+      <c r="F37" s="57"/>
       <c r="G37" s="28">
         <f>SUM(D37*E37)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
@@ -3425,11 +3431,13 @@
       <c r="D38" s="28">
         <v>10</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
+      <c r="E38" s="57">
+        <v>100</v>
+      </c>
+      <c r="F38" s="57"/>
       <c r="G38" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
@@ -3446,7 +3454,7 @@
       <c r="F39" s="28"/>
       <c r="G39" s="29">
         <f>SUM(G33:G38)</f>
-        <v>80000</v>
+        <v>134000</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -3498,35 +3506,35 @@
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
-      <c r="H43" s="51" t="s">
+      <c r="H43" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="57"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="57"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:10" s="4" customFormat="1">
       <c r="A46" s="25"/>
@@ -3552,9 +3560,9 @@
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="6"/>
@@ -3582,6 +3590,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -3596,26 +3624,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -3646,63 +3654,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
@@ -3712,10 +3720,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -3730,10 +3738,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="36">
         <v>68</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -3749,10 +3757,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="36">
         <v>135</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -3768,10 +3776,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>53</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -3787,10 +3795,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="36">
         <v>2</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -3806,10 +3814,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>5</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -3825,8 +3833,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3839,10 +3847,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="43"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -3889,76 +3897,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="61"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -4033,60 +4041,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" spans="1:10" ht="20.25">
       <c r="A31" s="6"/>
@@ -4095,10 +4103,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="60"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4113,10 +4121,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="63">
         <v>68</v>
       </c>
-      <c r="F32" s="64"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4132,10 +4140,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="63">
         <v>135</v>
       </c>
-      <c r="F33" s="64"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4151,10 +4159,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="64">
+      <c r="E34" s="63">
         <v>53</v>
       </c>
-      <c r="F34" s="64"/>
+      <c r="F34" s="63"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4170,10 +4178,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="63">
         <v>2</v>
       </c>
-      <c r="F35" s="64"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4189,10 +4197,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="64">
+      <c r="E36" s="63">
         <v>5</v>
       </c>
-      <c r="F36" s="64"/>
+      <c r="F36" s="63"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4208,8 +4216,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4222,10 +4230,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="63"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4272,76 +4280,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="36"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="36" t="s">
+      <c r="H42" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="37"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="62"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="32" t="s">
+      <c r="H46" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -4369,6 +4377,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4385,30 +4417,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4440,63 +4448,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
@@ -4506,10 +4514,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4524,10 +4532,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="36">
         <v>44</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -4543,10 +4551,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="36">
         <v>118</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -4562,10 +4570,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>510</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -4581,8 +4589,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4598,8 +4606,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4615,8 +4623,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4629,10 +4637,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="43"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4679,72 +4687,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -4819,60 +4827,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" spans="1:10" ht="23.25">
       <c r="A31" s="6"/>
@@ -4881,10 +4889,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="43"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -4899,10 +4907,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="36">
         <v>44</v>
       </c>
-      <c r="F32" s="38"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -4918,10 +4926,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="36">
         <v>118</v>
       </c>
-      <c r="F33" s="38"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -4937,10 +4945,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="36">
         <v>510</v>
       </c>
-      <c r="F34" s="38"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -4956,8 +4964,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4973,8 +4981,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4990,8 +4998,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5004,10 +5012,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="66"/>
+      <c r="E38" s="65"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5054,72 +5062,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="36"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="36" t="s">
+      <c r="H42" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="32" t="s">
+      <c r="H46" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -5147,16 +5155,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="H20:J20"/>
@@ -5169,24 +5185,16 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5211,64 +5219,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" ht="23.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="18"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5279,8 +5287,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="17"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5291,8 +5299,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="17"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5303,8 +5311,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="17"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5315,8 +5323,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="17"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5327,8 +5335,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="17"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5339,8 +5347,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="17"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5350,8 +5358,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="6"/>
@@ -5395,52 +5403,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6"/>
@@ -5450,9 +5458,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -5539,60 +5547,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" ht="18">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="18.75">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
     </row>
     <row r="32" spans="1:10" ht="20.25">
       <c r="A32" s="6" t="s">
@@ -5603,10 +5611,10 @@
       <c r="D32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="60"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="20" t="s">
         <v>5</v>
       </c>
@@ -5621,10 +5629,10 @@
       <c r="D33" s="19">
         <v>1000</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="36">
         <v>30</v>
       </c>
-      <c r="F33" s="38"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="19">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -5640,10 +5648,10 @@
       <c r="D34" s="19">
         <v>500</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="36">
         <v>35</v>
       </c>
-      <c r="F34" s="38"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="19">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -5659,10 +5667,10 @@
       <c r="D35" s="19">
         <v>100</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="36">
         <v>425</v>
       </c>
-      <c r="F35" s="38"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="19">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -5678,8 +5686,8 @@
       <c r="D36" s="19">
         <v>50</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5695,8 +5703,8 @@
       <c r="D37" s="19">
         <v>20</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
       <c r="G37" s="19">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -5712,10 +5720,10 @@
       <c r="D38" s="19">
         <v>10</v>
       </c>
-      <c r="E38" s="64">
+      <c r="E38" s="63">
         <v>100</v>
       </c>
-      <c r="F38" s="64"/>
+      <c r="F38" s="63"/>
       <c r="G38" s="19">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -5778,58 +5786,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="36"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="36" t="s">
+      <c r="H43" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
     </row>
     <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="37" t="s">
+      <c r="H46" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -5839,12 +5847,38 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -5857,32 +5891,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5908,177 +5916,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="78">
+      <c r="A5" s="77">
         <v>1</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="69">
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="76">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="78"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="69"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="78">
+      <c r="A7" s="77">
         <v>2</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="69">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="76">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="78"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="69"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="78">
+      <c r="A9" s="77">
         <v>3</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="69">
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="76">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="78"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="69"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="78">
+      <c r="A11" s="77">
         <v>4</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="69">
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="76">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="78"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="69"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="69">
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="76">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="69"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="76"/>
     </row>
     <row r="23" spans="1:10" ht="18.75">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
     </row>
     <row r="24" spans="1:10" ht="18.75">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10" ht="20.25">
       <c r="A25" s="6" t="s">
@@ -6089,10 +6097,10 @@
       <c r="D25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="20" t="s">
         <v>5</v>
       </c>
@@ -6107,8 +6115,8 @@
       <c r="D26" s="19">
         <v>1000</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="19">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6124,10 +6132,10 @@
       <c r="D27" s="19">
         <v>500</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="36">
         <v>30</v>
       </c>
-      <c r="F27" s="38"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6143,8 +6151,8 @@
       <c r="D28" s="19">
         <v>100</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6160,10 +6168,10 @@
       <c r="D29" s="19">
         <v>50</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="36">
         <v>5</v>
       </c>
-      <c r="F29" s="38"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="19">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6179,8 +6187,8 @@
       <c r="D30" s="19">
         <v>20</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="19">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6196,10 +6204,10 @@
       <c r="D31" s="19">
         <v>10</v>
       </c>
-      <c r="E31" s="64">
+      <c r="E31" s="63">
         <v>2</v>
       </c>
-      <c r="F31" s="64"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6262,58 +6270,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="36"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="36" t="s">
+      <c r="H36" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10" ht="15.75">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="37" t="s">
+      <c r="H39" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="6"/>
@@ -6323,12 +6331,29 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6345,23 +6370,6 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>

--- a/2020/February/Others/Cash.xlsx
+++ b/2020/February/Others/Cash.xlsx
@@ -107,7 +107,7 @@
     <t>ALIUL KABIR</t>
   </si>
   <si>
-    <t>Date: 11.02.2020</t>
+    <t>Date: 15.02.2020</t>
   </si>
 </sst>
 </file>
@@ -483,47 +483,68 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -535,36 +556,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,15 +580,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -593,6 +593,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -614,12 +620,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2068,7 +2068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2090,60 +2090,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="23.25">
       <c r="A5" s="6"/>
@@ -2152,10 +2152,10 @@
       <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
@@ -2170,10 +2170,10 @@
       <c r="D6" s="13">
         <v>1000</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="38">
         <v>50</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="13">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>50000</v>
@@ -2189,10 +2189,10 @@
       <c r="D7" s="13">
         <v>500</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="38">
         <v>16</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -2208,10 +2208,10 @@
       <c r="D8" s="13">
         <v>100</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="38">
         <v>151</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>15100</v>
@@ -2227,10 +2227,10 @@
       <c r="D9" s="13">
         <v>50</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="38">
         <v>58</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>2900</v>
@@ -2246,8 +2246,8 @@
       <c r="D10" s="13">
         <v>20</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2263,8 +2263,8 @@
       <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2277,10 +2277,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14">
         <f>SUM(G6:G11)</f>
@@ -2327,58 +2327,58 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6"/>
@@ -2388,11 +2388,11 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -2467,60 +2467,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1">
       <c r="A31" s="6"/>
@@ -2529,10 +2529,10 @@
       <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="32"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="15" t="s">
         <v>5</v>
       </c>
@@ -2547,10 +2547,10 @@
       <c r="D32" s="16">
         <v>1000</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="38">
         <v>50</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="16">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>50000</v>
@@ -2566,10 +2566,10 @@
       <c r="D33" s="16">
         <v>500</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="38">
         <v>116</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="16">
         <f t="shared" si="1"/>
         <v>58000</v>
@@ -2585,10 +2585,10 @@
       <c r="D34" s="16">
         <v>100</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="38">
         <v>151</v>
       </c>
-      <c r="F34" s="36"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="16">
         <f t="shared" si="1"/>
         <v>15100</v>
@@ -2604,10 +2604,10 @@
       <c r="D35" s="16">
         <v>50</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="38">
         <v>58</v>
       </c>
-      <c r="F35" s="36"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="16">
         <f t="shared" si="1"/>
         <v>2900</v>
@@ -2623,8 +2623,8 @@
       <c r="D36" s="16">
         <v>20</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
       <c r="G36" s="16">
         <f>SUM(D36*E36)</f>
         <v>0</v>
@@ -2640,8 +2640,8 @@
       <c r="D37" s="16">
         <v>10</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
       <c r="G37" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2654,10 +2654,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="44"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
         <f>SUM(G32:G37)</f>
@@ -2704,58 +2704,58 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="45" t="s">
+      <c r="H42" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10" ht="15.75">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="6"/>
@@ -2765,11 +2765,11 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -2797,14 +2797,24 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A27:J27"/>
@@ -2817,24 +2827,14 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.25" footer="0"/>
   <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
@@ -2847,7 +2847,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H47" sqref="A1:J47"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2865,63 +2865,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
@@ -2931,10 +2931,10 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -2949,13 +2949,13 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="57">
-        <v>54</v>
-      </c>
-      <c r="F6" s="57"/>
+      <c r="E6" s="50">
+        <v>82</v>
+      </c>
+      <c r="F6" s="50"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>54000</v>
+        <v>82000</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -2968,13 +2968,13 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="57">
-        <v>134</v>
-      </c>
-      <c r="F7" s="57"/>
+      <c r="E7" s="50">
+        <v>215</v>
+      </c>
+      <c r="F7" s="50"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
-        <v>67000</v>
+        <v>107500</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -2987,13 +2987,13 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="57">
-        <v>100</v>
-      </c>
-      <c r="F8" s="57"/>
+      <c r="E8" s="50">
+        <v>333</v>
+      </c>
+      <c r="F8" s="50"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>33300</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -3006,11 +3006,13 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="50">
+        <v>133</v>
+      </c>
+      <c r="F9" s="50"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6650</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -3023,13 +3025,13 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="57">
-        <v>100</v>
-      </c>
-      <c r="F10" s="57"/>
+      <c r="E10" s="50">
+        <v>230</v>
+      </c>
+      <c r="F10" s="50"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>4600</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -3042,13 +3044,13 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="57">
-        <v>100</v>
-      </c>
-      <c r="F11" s="57"/>
+      <c r="E11" s="50">
+        <v>95</v>
+      </c>
+      <c r="F11" s="50"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -3058,14 +3060,14 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="57"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="23"/>
       <c r="G12" s="24">
         <f>SUM(G6:G11)</f>
-        <v>134000</v>
+        <v>235000</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -3117,35 +3119,35 @@
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="50"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="50"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="25"/>
@@ -3169,9 +3171,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="21"/>
@@ -3258,60 +3260,60 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" ht="31.5">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10" ht="18">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
     </row>
     <row r="31" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1">
       <c r="A32" s="21"/>
@@ -3320,10 +3322,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="56"/>
+      <c r="F32" s="49"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3338,13 +3340,13 @@
       <c r="D33" s="28">
         <v>1000</v>
       </c>
-      <c r="E33" s="57">
-        <v>54</v>
-      </c>
-      <c r="F33" s="57"/>
+      <c r="E33" s="50">
+        <v>82</v>
+      </c>
+      <c r="F33" s="50"/>
       <c r="G33" s="28">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>54000</v>
+        <v>82000</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
@@ -3357,13 +3359,13 @@
       <c r="D34" s="28">
         <v>500</v>
       </c>
-      <c r="E34" s="57">
-        <v>134</v>
-      </c>
-      <c r="F34" s="57"/>
+      <c r="E34" s="50">
+        <v>215</v>
+      </c>
+      <c r="F34" s="50"/>
       <c r="G34" s="28">
         <f t="shared" si="1"/>
-        <v>67000</v>
+        <v>107500</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
@@ -3376,13 +3378,13 @@
       <c r="D35" s="28">
         <v>100</v>
       </c>
-      <c r="E35" s="57">
-        <v>100</v>
-      </c>
-      <c r="F35" s="57"/>
+      <c r="E35" s="50">
+        <v>333</v>
+      </c>
+      <c r="F35" s="50"/>
       <c r="G35" s="28">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>33300</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
@@ -3395,11 +3397,13 @@
       <c r="D36" s="28">
         <v>50</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="E36" s="50">
+        <v>133</v>
+      </c>
+      <c r="F36" s="50"/>
       <c r="G36" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6650</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
@@ -3412,13 +3416,13 @@
       <c r="D37" s="28">
         <v>20</v>
       </c>
-      <c r="E37" s="57">
-        <v>100</v>
-      </c>
-      <c r="F37" s="57"/>
+      <c r="E37" s="50">
+        <v>230</v>
+      </c>
+      <c r="F37" s="50"/>
       <c r="G37" s="28">
         <f>SUM(D37*E37)</f>
-        <v>2000</v>
+        <v>4600</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
@@ -3431,13 +3435,13 @@
       <c r="D38" s="28">
         <v>10</v>
       </c>
-      <c r="E38" s="57">
-        <v>100</v>
-      </c>
-      <c r="F38" s="57"/>
+      <c r="E38" s="50">
+        <v>95</v>
+      </c>
+      <c r="F38" s="50"/>
       <c r="G38" s="28">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
@@ -3454,7 +3458,7 @@
       <c r="F39" s="28"/>
       <c r="G39" s="29">
         <f>SUM(G33:G38)</f>
-        <v>134000</v>
+        <v>235000</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -3506,35 +3510,35 @@
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
-      <c r="H43" s="50" t="s">
+      <c r="H43" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="51"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="51"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
     </row>
     <row r="46" spans="1:10" s="4" customFormat="1">
       <c r="A46" s="25"/>
@@ -3560,9 +3564,9 @@
       <c r="E47" s="31"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="6"/>
@@ -3590,26 +3594,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -3624,6 +3608,26 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -3654,63 +3658,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
@@ -3720,10 +3724,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -3738,10 +3742,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="38">
         <v>68</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -3757,10 +3761,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="38">
         <v>135</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -3776,10 +3780,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="38">
         <v>53</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -3795,10 +3799,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="38">
         <v>2</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -3814,10 +3818,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="38">
         <v>5</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -3833,8 +3837,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3847,10 +3851,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -3897,76 +3901,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -4041,60 +4045,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="20.25">
       <c r="A31" s="6"/>
@@ -4103,10 +4107,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="64"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4121,10 +4125,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="63">
+      <c r="E32" s="64">
         <v>68</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4140,10 +4144,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="63">
+      <c r="E33" s="64">
         <v>135</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4159,10 +4163,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="63">
+      <c r="E34" s="64">
         <v>53</v>
       </c>
-      <c r="F34" s="63"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4178,10 +4182,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="63">
+      <c r="E35" s="64">
         <v>2</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="64"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4197,10 +4201,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="63">
+      <c r="E36" s="64">
         <v>5</v>
       </c>
-      <c r="F36" s="63"/>
+      <c r="F36" s="64"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4216,8 +4220,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4230,10 +4234,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="62"/>
+      <c r="E38" s="63"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4280,76 +4284,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="45" t="s">
+      <c r="H42" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="61"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -4377,30 +4381,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4417,6 +4397,30 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4448,63 +4452,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1">
@@ -4514,10 +4518,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="32"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4532,10 +4536,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="38">
         <v>44</v>
       </c>
-      <c r="F6" s="36"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -4551,10 +4555,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="38">
         <v>118</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -4570,10 +4574,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="38">
         <v>510</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -4589,8 +4593,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4606,8 +4610,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4623,8 +4627,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4637,10 +4641,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4687,72 +4691,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -4827,60 +4831,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
     </row>
     <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="23.25">
       <c r="A31" s="6"/>
@@ -4889,10 +4893,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="32"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -4907,10 +4911,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="38">
         <v>44</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -4926,10 +4930,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="38">
         <v>118</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -4945,10 +4949,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="38">
         <v>510</v>
       </c>
-      <c r="F34" s="36"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -4964,8 +4968,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4981,8 +4985,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4998,8 +5002,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5012,10 +5016,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="65"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5062,72 +5066,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="45" t="s">
+      <c r="H42" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="61"/>
-      <c r="B46" s="61"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -5155,6 +5159,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -5167,34 +5199,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5219,64 +5223,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="23.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="18"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5287,8 +5291,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="17"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5299,8 +5303,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="17"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5311,8 +5315,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="17"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5323,8 +5327,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="17"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5335,8 +5339,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="17"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5347,8 +5351,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="17"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5358,8 +5362,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="6"/>
@@ -5403,52 +5407,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6"/>
@@ -5458,9 +5462,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
@@ -5547,60 +5551,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:10" ht="18">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
     </row>
     <row r="31" spans="1:10" ht="18.75">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
     </row>
     <row r="32" spans="1:10" ht="20.25">
       <c r="A32" s="6" t="s">
@@ -5611,10 +5615,10 @@
       <c r="D32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="64"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="20" t="s">
         <v>5</v>
       </c>
@@ -5629,10 +5633,10 @@
       <c r="D33" s="19">
         <v>1000</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="38">
         <v>30</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="19">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -5648,10 +5652,10 @@
       <c r="D34" s="19">
         <v>500</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="38">
         <v>35</v>
       </c>
-      <c r="F34" s="36"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="19">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -5667,10 +5671,10 @@
       <c r="D35" s="19">
         <v>100</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="38">
         <v>425</v>
       </c>
-      <c r="F35" s="36"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="19">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -5686,8 +5690,8 @@
       <c r="D36" s="19">
         <v>50</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
       <c r="G36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5703,8 +5707,8 @@
       <c r="D37" s="19">
         <v>20</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="19">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -5720,10 +5724,10 @@
       <c r="D38" s="19">
         <v>10</v>
       </c>
-      <c r="E38" s="63">
+      <c r="E38" s="64">
         <v>100</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="64"/>
       <c r="G38" s="19">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -5786,58 +5790,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="45"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="45" t="s">
+      <c r="H43" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
     </row>
     <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6"/>
@@ -5847,20 +5851,30 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A28:J28"/>
@@ -5873,24 +5887,14 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5916,177 +5920,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="77">
+      <c r="A5" s="78">
         <v>1</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="76">
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="69">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="77"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="76"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="69"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="77">
+      <c r="A7" s="78">
         <v>2</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="76">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="69">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="77"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="76"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="77">
+      <c r="A9" s="78">
         <v>3</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="76">
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="69">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="77"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="76"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="77">
+      <c r="A11" s="78">
         <v>4</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="76">
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="69">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="77"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="69"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="76">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="69">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="76"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="18.75">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" ht="18.75">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" ht="20.25">
       <c r="A25" s="6" t="s">
@@ -6097,10 +6101,10 @@
       <c r="D25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E25" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="64"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="20" t="s">
         <v>5</v>
       </c>
@@ -6115,8 +6119,8 @@
       <c r="D26" s="19">
         <v>1000</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="19">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6132,10 +6136,10 @@
       <c r="D27" s="19">
         <v>500</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="38">
         <v>30</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="38"/>
       <c r="G27" s="19">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6151,8 +6155,8 @@
       <c r="D28" s="19">
         <v>100</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
       <c r="G28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6168,10 +6172,10 @@
       <c r="D29" s="19">
         <v>50</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="38">
         <v>5</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="19">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6187,8 +6191,8 @@
       <c r="D30" s="19">
         <v>20</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="19">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6204,10 +6208,10 @@
       <c r="D31" s="19">
         <v>10</v>
       </c>
-      <c r="E31" s="63">
+      <c r="E31" s="64">
         <v>2</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6270,58 +6274,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="45" t="s">
+      <c r="H36" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" ht="15.75">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="38" t="s">
+      <c r="H39" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="6"/>
@@ -6331,29 +6335,12 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6370,6 +6357,23 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
